--- a/InterfaceAuto/data/Intelligent_mediation/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation/Intelligent_mediation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\InterfaceAuto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\InterfaceAuto\data\Intelligent_mediation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B8568-5A11-4656-A9FA-0093D6CACD24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF923C7-6208-44C1-BB9E-9FE459CB65ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="305745" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="307380" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="216">
   <si>
     <t>Run</t>
   </si>
@@ -81,21 +81,6 @@
   </si>
   <si>
     <t>interface_except</t>
-  </si>
-  <si>
-    <t>interface_description</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Error_msg</t>
   </si>
   <si>
     <t>idcard_upload</t>
@@ -109,15 +94,6 @@
   <si>
     <t xml:space="preserve">code[=]200
 </t>
-  </si>
-  <si>
-    <t>【调解委员会接口】身份证上传</t>
-  </si>
-  <si>
-    <t>http://192.168.11.40:8383/api/common/idcard_upload</t>
-  </si>
-  <si>
-    <t>{'code': 200, 'data': {'address': '江苏省泰州市高港区刁铺街道环溪路75号', 'birthDay': 735494400000, 'id': '321201199304230221', 'name': '陈晶', 'nation': '汉', 'sex': '女'}, 'msg': '成功'}</t>
   </si>
   <si>
     <t>True</t>
@@ -1451,19 +1427,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1474,62 +1450,62 @@
     </row>
     <row r="2" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1576,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1627,29 +1603,29 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1697,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -1705,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -1719,7 +1695,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1765,13 +1741,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1779,13 +1755,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1793,13 +1769,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1807,10 +1783,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1818,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1832,13 +1808,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1863,12 +1839,12 @@
     <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1885,85 +1861,58 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1991,19 +1940,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2014,332 +1963,332 @@
     </row>
     <row r="2" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2367,19 +2316,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2390,232 +2339,232 @@
     </row>
     <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
         <v>163</v>
       </c>
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2645,19 +2594,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2668,212 +2617,212 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2922,10 +2871,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,24 +2882,24 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2958,10 +2907,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -2969,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -2980,10 +2929,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2991,10 +2940,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3002,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3013,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="114" x14ac:dyDescent="0.2">
@@ -3024,10 +2973,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="114" x14ac:dyDescent="0.2">
@@ -3035,10 +2984,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="114" x14ac:dyDescent="0.2">
@@ -3046,10 +2995,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3099,10 +3048,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,10 +3062,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3127,10 +3076,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3161,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3178,13 +3127,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3192,16 +3141,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3209,16 +3158,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3226,16 +3175,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3243,16 +3192,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3260,16 +3209,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3277,13 +3226,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,13 +3240,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3356,13 +3305,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3370,10 +3319,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3384,10 +3333,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
@@ -3398,13 +3347,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
@@ -3415,10 +3364,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="114" x14ac:dyDescent="0.2">
@@ -3429,7 +3378,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,10 +3389,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3451,13 +3400,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3488,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3505,13 +3454,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
